--- a/heatload_calc/Python/JSON_Spec/20190122JSON仕様.xlsx
+++ b/heatload_calc/Python/JSON_Spec/20190122JSON仕様.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\kiseisokue7\e7_inputdataconvert\heatload_calc\Python\JSON_Spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D14EE49-7171-489C-8964-E10351995C76}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EA8311-C6D0-4CD7-B64A-FC054FDA162A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="241">
   <si>
     <t>{</t>
   </si>
@@ -2165,6 +2165,13 @@
   </si>
   <si>
     <t>sunbreak:{</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2019/1/22修正</t>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2210,7 +2217,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2244,7 +2250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2267,15 +2273,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2595,10 +2592,10 @@
   <dimension ref="A1:N173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F160" sqref="F160"/>
+      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2656,183 +2653,183 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="8" customFormat="1">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:13" s="5" customFormat="1">
+      <c r="A4" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="5">
         <v>900</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="8" customFormat="1">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:13" s="5" customFormat="1">
+      <c r="A5" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="5">
         <v>0</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="8" customFormat="1">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:13" s="5" customFormat="1">
+      <c r="A6" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="8" t="s">
+      <c r="K6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="8" customFormat="1">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:13" s="5" customFormat="1">
+      <c r="A7" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="8" t="s">
+      <c r="K7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="8" customFormat="1">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:13" s="5" customFormat="1">
+      <c r="A8" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="8" t="s">
+      <c r="K8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="8" customFormat="1">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:13" s="5" customFormat="1">
+      <c r="A9" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="5">
         <v>1</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="8" t="s">
+      <c r="K9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="8" customFormat="1">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:13" s="5" customFormat="1">
+      <c r="A10" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="5">
         <v>34.658333333333303</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="8" customFormat="1">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:13" s="5" customFormat="1">
+      <c r="A11" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="5">
         <v>133.91833333333301</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="8" customFormat="1">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:13" s="5" customFormat="1">
+      <c r="A12" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="5">
         <v>135</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="6" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3128,7 +3125,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="3:14" s="5" customFormat="1">
+    <row r="33" spans="1:14" s="5" customFormat="1">
       <c r="E33" s="5" t="s">
         <v>55</v>
       </c>
@@ -3145,7 +3142,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="3:14" s="5" customFormat="1">
+    <row r="34" spans="1:14" s="5" customFormat="1">
       <c r="E34" s="5" t="s">
         <v>56</v>
       </c>
@@ -3162,17 +3159,17 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="3:14" s="5" customFormat="1">
+    <row r="35" spans="1:14" s="5" customFormat="1">
       <c r="D35" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="3:14" s="5" customFormat="1">
+    <row r="36" spans="1:14" s="5" customFormat="1">
       <c r="C36" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="3:14">
+    <row r="37" spans="1:14">
       <c r="C37" s="3" t="s">
         <v>65</v>
       </c>
@@ -3180,38 +3177,41 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="3:14">
+    <row r="38" spans="1:14">
       <c r="C38" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:14">
-      <c r="D39" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E39" s="3" t="s">
+    <row r="39" spans="1:14" s="2" customFormat="1">
+      <c r="A39" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L39" s="3" t="s">
+      <c r="K39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L39" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M39" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N39" s="3" t="s">
+      <c r="M39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N39" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="3:14">
+    <row r="40" spans="1:14">
       <c r="E40" s="3" t="s">
         <v>161</v>
       </c>
       <c r="M40" s="4"/>
     </row>
-    <row r="41" spans="3:14">
+    <row r="41" spans="1:14">
       <c r="D41" s="3" t="s">
         <v>67</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="3:14">
+    <row r="42" spans="1:14">
       <c r="D42" s="3" t="s">
         <v>68</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="3:14">
+    <row r="43" spans="1:14">
       <c r="D43" s="3" t="s">
         <v>69</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="3:14">
+    <row r="44" spans="1:14">
       <c r="D44" s="3" t="s">
         <v>70</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="3:14">
+    <row r="45" spans="1:14">
       <c r="D45" s="3" t="s">
         <v>71</v>
       </c>
@@ -3299,19 +3299,19 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="3:14">
+    <row r="46" spans="1:14">
       <c r="D46" s="3" t="s">
         <v>214</v>
       </c>
       <c r="M46" s="4"/>
     </row>
-    <row r="47" spans="3:14">
+    <row r="47" spans="1:14">
       <c r="E47" s="3" t="s">
         <v>216</v>
       </c>
       <c r="M47" s="4"/>
     </row>
-    <row r="48" spans="3:14">
+    <row r="48" spans="1:14">
       <c r="F48" s="3" t="s">
         <v>206</v>
       </c>
@@ -3352,26 +3352,26 @@
         <v>162</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="2" customFormat="1">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:14">
+      <c r="A51" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H51" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L51" s="2" t="s">
+      <c r="K51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L51" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M51" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N51" s="2" t="s">
+      <c r="M51" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="N51" s="3" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3498,26 +3498,26 @@
         <v>162</v>
       </c>
     </row>
-    <row r="60" spans="1:14" s="2" customFormat="1">
-      <c r="A60" s="2" t="s">
+    <row r="60" spans="1:14">
+      <c r="A60" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H60" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="K60" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L60" s="2" t="s">
+      <c r="K60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L60" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M60" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N60" s="2" t="s">
+      <c r="M60" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="N60" s="3" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3613,23 +3613,23 @@
         <v>169</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="2" customFormat="1">
-      <c r="A66" s="2" t="s">
+    <row r="66" spans="1:14">
+      <c r="A66" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G66" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="H66" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="K66" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L66" s="2" t="s">
+      <c r="K66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L66" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="M66" s="1"/>
+      <c r="M66" s="4"/>
     </row>
     <row r="67" spans="1:14">
       <c r="F67" s="3" t="s">
@@ -4030,26 +4030,26 @@
         <v>162</v>
       </c>
     </row>
-    <row r="97" spans="1:14" s="2" customFormat="1">
-      <c r="A97" s="2" t="s">
+    <row r="97" spans="1:14">
+      <c r="A97" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="G97" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="H97" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K97" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L97" s="2" t="s">
+      <c r="K97" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L97" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M97" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N97" s="2" t="s">
+      <c r="M97" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="N97" s="3" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4145,23 +4145,23 @@
         <v>169</v>
       </c>
     </row>
-    <row r="103" spans="1:14" s="2" customFormat="1">
-      <c r="A103" s="2" t="s">
+    <row r="103" spans="1:14">
+      <c r="A103" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="G103" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="H103" s="2" t="s">
+      <c r="H103" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="K103" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L103" s="2" t="s">
+      <c r="K103" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L103" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="M103" s="1"/>
+      <c r="M103" s="4"/>
     </row>
     <row r="104" spans="1:14">
       <c r="F104" s="3" t="s">
@@ -4339,89 +4339,89 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:14" s="2" customFormat="1">
-      <c r="A117" s="2" t="s">
+    <row r="117" spans="1:14">
+      <c r="A117" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="I117" s="2" t="s">
+      <c r="I117" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="J117" s="2" t="s">
+      <c r="J117" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K117" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L117" s="2" t="s">
+      <c r="K117" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L117" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="M117" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N117" s="10" t="s">
+      <c r="M117" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="N117" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="118" spans="1:14" s="2" customFormat="1">
-      <c r="A118" s="2" t="s">
+    <row r="118" spans="1:14">
+      <c r="A118" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="I118" s="2" t="s">
+      <c r="I118" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="J118" s="2">
+      <c r="J118" s="3">
         <v>0.22</v>
       </c>
-      <c r="K118" s="2" t="s">
+      <c r="K118" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="L118" s="2" t="s">
+      <c r="L118" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="M118" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" s="2" customFormat="1">
-      <c r="A119" s="2" t="s">
+      <c r="M118" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="I119" s="2" t="s">
+      <c r="I119" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="J119" s="2">
+      <c r="J119" s="3">
         <v>830</v>
       </c>
-      <c r="K119" s="2" t="s">
+      <c r="K119" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L119" s="2" t="s">
+      <c r="L119" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="M119" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" s="2" customFormat="1">
-      <c r="A120" s="2" t="s">
+      <c r="M119" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="I120" s="2" t="s">
+      <c r="I120" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="J120" s="2">
+      <c r="J120" s="3">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="K120" s="2" t="s">
+      <c r="K120" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="L120" s="2" t="s">
+      <c r="L120" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="M120" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N120" s="2" t="s">
+      <c r="M120" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="N120" s="3" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4587,26 +4587,26 @@
         <v>162</v>
       </c>
     </row>
-    <row r="134" spans="1:14" s="2" customFormat="1">
-      <c r="A134" s="2" t="s">
+    <row r="134" spans="1:14">
+      <c r="A134" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="G134" s="2" t="s">
+      <c r="G134" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="H134" s="2" t="s">
+      <c r="H134" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K134" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L134" s="2" t="s">
+      <c r="K134" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L134" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M134" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N134" s="2" t="s">
+      <c r="M134" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="N134" s="3" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4702,23 +4702,23 @@
         <v>169</v>
       </c>
     </row>
-    <row r="140" spans="1:14" s="2" customFormat="1">
-      <c r="A140" s="2" t="s">
+    <row r="140" spans="1:14">
+      <c r="A140" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="G140" s="2" t="s">
+      <c r="G140" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="H140" s="2" t="s">
+      <c r="H140" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="K140" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L140" s="2" t="s">
+      <c r="K140" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L140" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="M140" s="1"/>
+      <c r="M140" s="4"/>
     </row>
     <row r="141" spans="1:14">
       <c r="F141" s="3" t="s">
@@ -4982,40 +4982,40 @@
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:14" s="2" customFormat="1">
-      <c r="A158" s="2" t="s">
+    <row r="158" spans="1:14">
+      <c r="A158" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F158" s="2" t="s">
+      <c r="F158" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="L158" s="2" t="s">
+      <c r="L158" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="159" spans="1:14" s="2" customFormat="1">
-      <c r="A159" s="2" t="s">
+    <row r="159" spans="1:14">
+      <c r="A159" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="G159" s="2" t="s">
+      <c r="G159" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="H159" s="2" t="s">
+      <c r="H159" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K159" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L159" s="2" t="s">
+      <c r="K159" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L159" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M159" s="1" t="s">
+      <c r="M159" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="N159" s="2" t="s">
+      <c r="N159" s="3" t="s">
         <v>170</v>
       </c>
     </row>
